--- a/commits.xlsx
+++ b/commits.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lessi/Programs/Robo/Autumn-Doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C0421007-7B0A-1144-82F2-2E3BDA495962}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{30C62C4E-BC96-1A4D-8591-A238F0AAB2C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="35840" windowHeight="22400"/>
   </bookViews>
@@ -1688,7 +1688,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2047,7 +2047,7 @@
   <dimension ref="B1:F197"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
